--- a/TF_Input.xlsx
+++ b/TF_Input.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="375" windowWidth="27795" windowHeight="11820"/>
+    <workbookView xWindow="600" yWindow="375" windowWidth="24240" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Glyma_ID_1</t>
   </si>
@@ -68,12 +67,6 @@
     <t>WRKY40KoAmbByWTAmb</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>Glyma.19G046800_Exp</t>
-  </si>
-  <si>
     <t>Glyma.08G165400</t>
   </si>
   <si>
@@ -86,30 +79,15 @@
     <t>Glyma.03G185800</t>
   </si>
   <si>
-    <t>Glyma.10G268500_Exp</t>
-  </si>
-  <si>
     <t>Glyma.07G142700</t>
   </si>
   <si>
-    <t>Glyma.10G293500_Exp</t>
-  </si>
-  <si>
-    <t>Glyma.11G226900_Exp</t>
-  </si>
-  <si>
-    <t>Glyma.15G136200_Exp</t>
-  </si>
-  <si>
     <t>Glyma.05G025300</t>
   </si>
   <si>
     <t>Glyma.01G026700</t>
   </si>
   <si>
-    <t>Glyma.19G089100_Exp</t>
-  </si>
-  <si>
     <t>Glyma.06G094300</t>
   </si>
   <si>
@@ -180,9 +158,6 @@
   </si>
   <si>
     <t>Glyma.09G024100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ProteinTotalRatio</t>
@@ -230,17 +205,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ProteinRatioEleByAmb</t>
-  </si>
-  <si>
     <t>ECO2_ProteinRatioEleByAmb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bHLHB1Ox</t>
-  </si>
-  <si>
-    <t>bHLH164Ox</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -258,7 +223,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,12 +245,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +270,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,10 +281,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -721,27 +676,27 @@
         <v>16</v>
       </c>
       <c r="U1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="X1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Y1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Z1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2">
         <v>0.94399599999999995</v>
@@ -821,7 +776,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>1.0420849999999999</v>
@@ -901,7 +856,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>0.96662599999999999</v>
@@ -981,7 +936,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>0.88690400000000003</v>
@@ -1061,7 +1016,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>0.89470700000000003</v>
@@ -1141,7 +1096,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2">
         <v>1.1440109999999999</v>
@@ -1221,7 +1176,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>0.914219</v>
@@ -1301,7 +1256,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2">
         <v>0.95905899999999999</v>
@@ -1381,7 +1336,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2">
         <v>0.98134299999999997</v>
@@ -1461,7 +1416,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2">
         <v>0.91714700000000005</v>
@@ -1541,7 +1496,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>0.79528299999999996</v>
@@ -1621,7 +1576,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>0.95111000000000001</v>
@@ -1701,7 +1656,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2">
         <v>1.146342</v>
@@ -1781,7 +1736,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>1.1191180000000001</v>
@@ -1861,7 +1816,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>0.82747999999999999</v>
@@ -1941,7 +1896,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -2021,7 +1976,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>0.98852300000000004</v>
@@ -2101,7 +2056,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>0.83002200000000004</v>
@@ -2181,7 +2136,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
         <v>1.156725</v>
@@ -2261,7 +2216,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>0.92231099999999999</v>
@@ -2341,7 +2296,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
         <v>0.74967799999999996</v>
@@ -2421,7 +2376,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <v>1.137157</v>
@@ -2501,7 +2456,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>1.315634</v>
@@ -2581,7 +2536,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
         <v>1.1748529999999999</v>
@@ -2661,7 +2616,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>0.95308999999999999</v>
@@ -2741,7 +2696,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -2821,7 +2776,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
         <v>0.84188499999999999</v>
@@ -2901,7 +2856,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
         <v>1.1530419999999999</v>
@@ -2981,7 +2936,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
         <v>0.96477199999999996</v>
@@ -3061,7 +3016,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>0.96974499999999997</v>
@@ -3141,7 +3096,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
         <v>1.0368189999999999</v>
@@ -3221,7 +3176,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>0.93289999999999995</v>
@@ -3301,7 +3256,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>1.1165179999999999</v>
@@ -3381,7 +3336,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>0.89175000000000004</v>
@@ -3461,7 +3416,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>0.95801599999999998</v>
@@ -3541,7 +3496,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -3621,7 +3576,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -3701,7 +3656,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3">
         <v>0.97266750421766612</v>
@@ -3777,620 +3732,6 @@
       </c>
       <c r="Z40" s="1">
         <v>1.0367020323395633</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>0.94399599999999995</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>1.0420849999999999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>1.0000001779668872</v>
-      </c>
-      <c r="F3">
-        <v>1.4290941366959544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>0.96662599999999999</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>1.1715646227216476</v>
-      </c>
-      <c r="F4">
-        <v>0.99999996689516013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>0.88690400000000003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>0.89470700000000003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>0.10935563004319034</v>
-      </c>
-      <c r="F6">
-        <v>1.2958744960664996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>1.1440109999999999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>1.1842028077240254</v>
-      </c>
-      <c r="F7">
-        <v>1.1881665671184922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>0.914219</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>1.1844872405557925</v>
-      </c>
-      <c r="F8">
-        <v>1.0492130066071124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>0.95905899999999999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>1.0000004636505391</v>
-      </c>
-      <c r="F9">
-        <v>1.0826875048065205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>0.98134299999999997</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>1.0000000026170199</v>
-      </c>
-      <c r="F10">
-        <v>1.0000000026170199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>0.91714700000000005</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0.99999990389703541</v>
-      </c>
-      <c r="F11">
-        <v>0.99999990389703541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>0.79528299999999996</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>0.95111000000000001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>0.99999995367538541</v>
-      </c>
-      <c r="F13">
-        <v>0.99999995367538541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>1.146342</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>1.0000004850889401</v>
-      </c>
-      <c r="F14">
-        <v>1.0000004850889401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>1.1191180000000001</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>0.9999996504236871</v>
-      </c>
-      <c r="F15">
-        <v>0.9999996504236871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>0.82747999999999999</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>0.9999995437971485</v>
-      </c>
-      <c r="F16">
-        <v>0.9999995437971485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>0.9999995079435926</v>
-      </c>
-      <c r="F17">
-        <v>0.9999995079435926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>0.98852300000000004</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>0.99999962293501632</v>
-      </c>
-      <c r="F18">
-        <v>0.99999962293501632</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>0.83002200000000004</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>1.156725</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>1.1801285696659896</v>
-      </c>
-      <c r="F20">
-        <v>0.99999987965015424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>0.92231099999999999</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22">
-        <v>0.74967799999999996</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>1.0000000060807186</v>
-      </c>
-      <c r="F22">
-        <v>1.0000000060807186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23">
-        <v>1.137157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>1.0000003481287807</v>
-      </c>
-      <c r="F23">
-        <v>1.0000003481287807</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>1.315634</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25">
-        <v>1.1748529999999999</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>1.0000001428342664</v>
-      </c>
-      <c r="F25">
-        <v>1.0000001428342664</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26">
-        <v>0.95308999999999999</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>0.99999957876647816</v>
-      </c>
-      <c r="F26">
-        <v>0.99999957876647816</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27">
-        <v>1.0000000956110171</v>
-      </c>
-      <c r="F27">
-        <v>1.0000000956110171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28">
-        <v>0.84188499999999999</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>1.0000001800648073</v>
-      </c>
-      <c r="F28">
-        <v>1.0000001800648073</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29">
-        <v>1.1530419999999999</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>1.0000000890445087</v>
-      </c>
-      <c r="F29">
-        <v>1.0000000890445087</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30">
-        <v>0.96477199999999996</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31">
-        <v>0.96974499999999997</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31">
-        <v>1.0000003596690228</v>
-      </c>
-      <c r="F31">
-        <v>1.0000003596690228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32">
-        <v>1.0368189999999999</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32">
-        <v>0.99999996537577895</v>
-      </c>
-      <c r="F32">
-        <v>0.99999996537577895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33">
-        <v>0.93289999999999995</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33">
-        <v>0.9999998082422572</v>
-      </c>
-      <c r="F33">
-        <v>0.9999998082422572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <v>1.1165179999999999</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35">
-        <v>0.89175000000000004</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36">
-        <v>0.95801599999999998</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/TF_Input.xlsx
+++ b/TF_Input.xlsx
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
